--- a/medicine/Mort/Cimetière_des_Longs_Réages/Cimetière_des_Longs_Réages.xlsx
+++ b/medicine/Mort/Cimetière_des_Longs_Réages/Cimetière_des_Longs_Réages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Longs_R%C3%A9ages</t>
+          <t>Cimetière_des_Longs_Réages</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière des Longs Réages est le cimetière historique et principal de Meudon dans les Hauts-de-Seine en France. Inauguré en 1857, au 29 avenue de la Paix, il est l'un des deux cimetières de la commune avec le cimetière de Trivaux. Une entrée secondaire se trouve rue des Galons.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Longs_R%C3%A9ages</t>
+          <t>Cimetière_des_Longs_Réages</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ouverture d'un nouveau cimetière est décidé vers 1850 lorsque le vieux cimetière situé derrière l'église Saint-Martin de Meudon ne peut plus accueillir de nouvelles sépultures. Les travaux des Longs Réages commencent en 1856 et sont complètement achevés en 1857[1]. Vers 1910, les Longs Réages arrivent à leur tour à saturation entraînant la décision de créer un nouveau cimetière, le cimetière de Trivaux situé en bordure de forêt de Meudon, qui est inauguré en 1922.
-En 1896, le fils de l'archéologue Jean-Baptiste Piketty rachète le dolmen de Ker-Han situé à Saint-Philibert dans le Morbihan pour le transférer par voie ferroviaire dans le cimetière afin d'orner leur tombe familiale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ouverture d'un nouveau cimetière est décidé vers 1850 lorsque le vieux cimetière situé derrière l'église Saint-Martin de Meudon ne peut plus accueillir de nouvelles sépultures. Les travaux des Longs Réages commencent en 1856 et sont complètement achevés en 1857. Vers 1910, les Longs Réages arrivent à leur tour à saturation entraînant la décision de créer un nouveau cimetière, le cimetière de Trivaux situé en bordure de forêt de Meudon, qui est inauguré en 1922.
+En 1896, le fils de l'archéologue Jean-Baptiste Piketty rachète le dolmen de Ker-Han situé à Saint-Philibert dans le Morbihan pour le transférer par voie ferroviaire dans le cimetière afin d'orner leur tombe familiale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Longs_R%C3%A9ages</t>
+          <t>Cimetière_des_Longs_Réages</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnes les plus notables enterrées dans le cimetière sont[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnes les plus notables enterrées dans le cimetière sont :
 Pierre Aubry (1874-1910), musicologue et paléographe
 José de Bérys (Joseph Bloch, 1883-1957), écrivain
 Henri Blanche (1857-1945), architecte
